--- a/GUI + Reviews/202509/EuronextDefenseIndex_Sep2025.xlsx
+++ b/GUI + Reviews/202509/EuronextDefenseIndex_Sep2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBernardi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2426A2F-C609-4913-B03B-893FBF75E8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8776DCCC-A839-4206-83F6-B9CA51BEF583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{933AE776-6FBE-4455-B2F0-CC05EFE96E39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{933AE776-6FBE-4455-B2F0-CC05EFE96E39}"/>
   </bookViews>
   <sheets>
     <sheet name="User guide" sheetId="3" r:id="rId1"/>
@@ -6090,8 +6090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K866"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13609,8 +13609,8 @@
       <c r="C215" s="17">
         <v>0.85862463166642899</v>
       </c>
-      <c r="D215">
-        <v>0</v>
+      <c r="D215" s="17">
+        <v>1</v>
       </c>
       <c r="E215" s="17">
         <v>0</v>
@@ -36437,18 +36437,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e2ae79d-4b49-4746-bf07-48428d5b48c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="8e2ae79d-4b49-4746-bf07-48428d5b48c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="ac031069-78b5-4ec7-ab5b-64d94dea7365" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092CC24E85E40F441A490A23A64B3BD5B" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e0e0791767473430d72e2b593e95ca8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac031069-78b5-4ec7-ab5b-64d94dea7365" xmlns:ns3="8e2ae79d-4b49-4746-bf07-48428d5b48c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="110abeac4390e382becc39caac872d02" ns2:_="" ns3:_="">
     <xsd:import namespace="ac031069-78b5-4ec7-ab5b-64d94dea7365"/>
@@ -36709,6 +36697,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e2ae79d-4b49-4746-bf07-48428d5b48c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="8e2ae79d-4b49-4746-bf07-48428d5b48c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="ac031069-78b5-4ec7-ab5b-64d94dea7365" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0AE24B2-B201-4E08-8D6C-1FA0AAD5AE32}">
   <ds:schemaRefs>
@@ -36718,23 +36718,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A670F587-201C-4DF4-ADE3-C0ADCC39193E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8e2ae79d-4b49-4746-bf07-48428d5b48c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ac031069-78b5-4ec7-ab5b-64d94dea7365"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57167EA2-D8B8-446C-BDD3-D8164BA1A8F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36753,6 +36736,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A670F587-201C-4DF4-ADE3-C0ADCC39193E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8e2ae79d-4b49-4746-bf07-48428d5b48c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ac031069-78b5-4ec7-ab5b-64d94dea7365"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{4b191b0e-2543-4952-85aa-086e57406cb8}" enabled="0" method="" siteId="{4b191b0e-2543-4952-85aa-086e57406cb8}" removed="1"/>
